--- a/biology/Zoologie/Halichoeres_bicolor/Halichoeres_bicolor.xlsx
+++ b/biology/Zoologie/Halichoeres_bicolor/Halichoeres_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halichoeres bicolor est une espèce de poissons osseux de petite taille de la famille des Labridae, qui se rencontre au Sri Lanka et en Indonésie. Il peut atteindre une longueur totale de 12 cm[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halichoeres bicolor est une espèce de poissons osseux de petite taille de la famille des Labridae, qui se rencontre au Sri Lanka et en Indonésie. Il peut atteindre une longueur totale de 12 cm.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce affectionne les récifs coralliens et est présente entre 3 et 20 m de profondeur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce affectionne les récifs coralliens et est présente entre 3 et 20 m de profondeur.
 </t>
         </is>
       </c>
